--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2777,28 +2777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2607.207992724819</v>
+        <v>2736.53791745648</v>
       </c>
       <c r="AB2" t="n">
-        <v>3567.296997545102</v>
+        <v>3744.251906196565</v>
       </c>
       <c r="AC2" t="n">
-        <v>3226.839178832045</v>
+        <v>3386.905759359579</v>
       </c>
       <c r="AD2" t="n">
-        <v>2607207.992724819</v>
+        <v>2736537.91745648</v>
       </c>
       <c r="AE2" t="n">
-        <v>3567296.997545103</v>
+        <v>3744251.906196565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.034904128723263e-06</v>
+        <v>1.491984454508348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.36875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3226839.178832045</v>
+        <v>3386905.75935958</v>
       </c>
     </row>
     <row r="3">
@@ -2883,28 +2883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.7778458590326</v>
+        <v>958.8447882229005</v>
       </c>
       <c r="AB3" t="n">
-        <v>1217.433302932464</v>
+        <v>1311.933740493157</v>
       </c>
       <c r="AC3" t="n">
-        <v>1101.243177178961</v>
+        <v>1186.724625611059</v>
       </c>
       <c r="AD3" t="n">
-        <v>889777.8458590326</v>
+        <v>958844.7882229006</v>
       </c>
       <c r="AE3" t="n">
-        <v>1217433.302932464</v>
+        <v>1311933.740493157</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.941867614524296e-06</v>
+        <v>2.799521436983454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.65208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1101243.177178961</v>
+        <v>1186724.625611059</v>
       </c>
     </row>
     <row r="4">
@@ -2989,28 +2989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>686.7665093742238</v>
+        <v>747.029491742016</v>
       </c>
       <c r="AB4" t="n">
-        <v>939.664236125882</v>
+        <v>1022.118707216642</v>
       </c>
       <c r="AC4" t="n">
-        <v>849.9840002570654</v>
+        <v>924.5691323524999</v>
       </c>
       <c r="AD4" t="n">
-        <v>686766.5093742238</v>
+        <v>747029.491742016</v>
       </c>
       <c r="AE4" t="n">
-        <v>939664.236125882</v>
+        <v>1022118.707216642</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.265293390303754e-06</v>
+        <v>3.265792868565778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>849984.0002570654</v>
+        <v>924569.1323524999</v>
       </c>
     </row>
     <row r="5">
@@ -3095,28 +3095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>595.3445057806481</v>
+        <v>647.0594612075283</v>
       </c>
       <c r="AB5" t="n">
-        <v>814.5766175550058</v>
+        <v>885.3353010728765</v>
       </c>
       <c r="AC5" t="n">
-        <v>736.8345684410185</v>
+        <v>800.8401425143797</v>
       </c>
       <c r="AD5" t="n">
-        <v>595344.5057806481</v>
+        <v>647059.4612075284</v>
       </c>
       <c r="AE5" t="n">
-        <v>814576.6175550058</v>
+        <v>885335.3010728766</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.445168889417904e-06</v>
+        <v>3.525112974628478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.42916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>736834.5684410185</v>
+        <v>800840.1425143797</v>
       </c>
     </row>
     <row r="6">
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>538.2713229612954</v>
+        <v>598.5342158205365</v>
       </c>
       <c r="AB6" t="n">
-        <v>736.4865709304453</v>
+        <v>818.9409195516567</v>
       </c>
       <c r="AC6" t="n">
-        <v>666.1973262662372</v>
+        <v>740.7823475804453</v>
       </c>
       <c r="AD6" t="n">
-        <v>538271.3229612954</v>
+        <v>598534.2158205365</v>
       </c>
       <c r="AE6" t="n">
-        <v>736486.5709304453</v>
+        <v>818940.9195516567</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.552102174779358e-06</v>
+        <v>3.679274886829581e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.90833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>666197.3262662372</v>
+        <v>740782.3475804452</v>
       </c>
     </row>
     <row r="7">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>500.4357042679096</v>
+        <v>552.2359110408106</v>
       </c>
       <c r="AB7" t="n">
-        <v>684.7182082444637</v>
+        <v>755.5935364149839</v>
       </c>
       <c r="AC7" t="n">
-        <v>619.3696634576523</v>
+        <v>683.4807497817258</v>
       </c>
       <c r="AD7" t="n">
-        <v>500435.7042679096</v>
+        <v>552235.9110408106</v>
       </c>
       <c r="AE7" t="n">
-        <v>684718.2082444637</v>
+        <v>755593.5364149839</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.627524423799647e-06</v>
+        <v>3.788008459282472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>619369.6634576523</v>
+        <v>683480.7497817258</v>
       </c>
     </row>
     <row r="8">
@@ -3413,28 +3413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>488.4060270416141</v>
+        <v>540.0356416139228</v>
       </c>
       <c r="AB8" t="n">
-        <v>668.2586731515428</v>
+        <v>738.900589547216</v>
       </c>
       <c r="AC8" t="n">
-        <v>604.4810032928973</v>
+        <v>668.3809543343195</v>
       </c>
       <c r="AD8" t="n">
-        <v>488406.0270416141</v>
+        <v>540035.6416139229</v>
       </c>
       <c r="AE8" t="n">
-        <v>668258.6731515428</v>
+        <v>738900.589547216</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.650136510062983e-06</v>
+        <v>3.820607499379568e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>604481.0032928973</v>
+        <v>668380.9543343196</v>
       </c>
     </row>
     <row r="9">
@@ -3519,28 +3519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>488.6523299893921</v>
+        <v>540.2819445617008</v>
       </c>
       <c r="AB9" t="n">
-        <v>668.5956757108116</v>
+        <v>739.2375921064848</v>
       </c>
       <c r="AC9" t="n">
-        <v>604.7858428008956</v>
+        <v>668.685793842318</v>
       </c>
       <c r="AD9" t="n">
-        <v>488652.3299893921</v>
+        <v>540281.9445617008</v>
       </c>
       <c r="AE9" t="n">
-        <v>668595.6757108116</v>
+        <v>739237.5921064848</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.655388349453177e-06</v>
+        <v>3.828178889337603e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.44583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>604785.8428008956</v>
+        <v>668685.793842318</v>
       </c>
     </row>
   </sheetData>
@@ -3816,28 +3816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1585.113030731887</v>
+        <v>1677.704779345471</v>
       </c>
       <c r="AB2" t="n">
-        <v>2168.821578898854</v>
+        <v>2295.509694211614</v>
       </c>
       <c r="AC2" t="n">
-        <v>1961.832291368951</v>
+        <v>2076.429470764147</v>
       </c>
       <c r="AD2" t="n">
-        <v>1585113.030731887</v>
+        <v>1677704.779345471</v>
       </c>
       <c r="AE2" t="n">
-        <v>2168821.578898854</v>
+        <v>2295509.694211614</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.364426124264726e-06</v>
+        <v>1.997468517641503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.04375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1961832.291368951</v>
+        <v>2076429.470764148</v>
       </c>
     </row>
     <row r="3">
@@ -3922,28 +3922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.0841967305267</v>
+        <v>758.9209102695273</v>
       </c>
       <c r="AB3" t="n">
-        <v>957.8860835016754</v>
+        <v>1038.389070658343</v>
       </c>
       <c r="AC3" t="n">
-        <v>866.4667800938367</v>
+        <v>939.2866751429237</v>
       </c>
       <c r="AD3" t="n">
-        <v>700084.1967305267</v>
+        <v>758920.9102695273</v>
       </c>
       <c r="AE3" t="n">
-        <v>957886.0835016754</v>
+        <v>1038389.070658343</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.198082789505113e-06</v>
+        <v>3.217910514262636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.30416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>866466.7800938367</v>
+        <v>939286.6751429237</v>
       </c>
     </row>
     <row r="4">
@@ -4028,28 +4028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.8988677153561</v>
+        <v>609.7354917458058</v>
       </c>
       <c r="AB4" t="n">
-        <v>753.7641347509086</v>
+        <v>834.2669994380275</v>
       </c>
       <c r="AC4" t="n">
-        <v>681.8259436448888</v>
+        <v>754.6457279127491</v>
       </c>
       <c r="AD4" t="n">
-        <v>550898.8677153562</v>
+        <v>609735.4917458058</v>
       </c>
       <c r="AE4" t="n">
-        <v>753764.1347509086</v>
+        <v>834266.9994380275</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499762672527477e-06</v>
+        <v>3.659558514126077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.57708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>681825.9436448887</v>
+        <v>754645.727912749</v>
       </c>
     </row>
     <row r="5">
@@ -4134,28 +4134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.9259010233951</v>
+        <v>517.4304423534134</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.8686170971363</v>
+        <v>707.9711586479791</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.8958929391206</v>
+        <v>640.4033849103771</v>
       </c>
       <c r="AD5" t="n">
-        <v>466925.9010233951</v>
+        <v>517430.4423534133</v>
       </c>
       <c r="AE5" t="n">
-        <v>638868.6170971363</v>
+        <v>707971.1586479791</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.693990791311759e-06</v>
+        <v>3.943901173367821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.67083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>577895.8929391205</v>
+        <v>640403.3849103771</v>
       </c>
     </row>
     <row r="6">
@@ -4240,28 +4240,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>451.5435327800589</v>
+        <v>502.048074110077</v>
       </c>
       <c r="AB6" t="n">
-        <v>617.8217822444117</v>
+        <v>686.9243237952544</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.8577384653217</v>
+        <v>621.3652304365781</v>
       </c>
       <c r="AD6" t="n">
-        <v>451543.5327800589</v>
+        <v>502048.074110077</v>
       </c>
       <c r="AE6" t="n">
-        <v>617821.7822444116</v>
+        <v>686924.3237952543</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.719948239976015e-06</v>
+        <v>3.981901901720253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.55833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>558857.7384653217</v>
+        <v>621365.2304365782</v>
       </c>
     </row>
     <row r="7">
@@ -4346,28 +4346,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>453.3891112786813</v>
+        <v>503.8936526086995</v>
       </c>
       <c r="AB7" t="n">
-        <v>620.3469841674038</v>
+        <v>689.4495257182466</v>
       </c>
       <c r="AC7" t="n">
-        <v>561.1419386609265</v>
+        <v>623.6494306321831</v>
       </c>
       <c r="AD7" t="n">
-        <v>453389.1112786813</v>
+        <v>503893.6526086995</v>
       </c>
       <c r="AE7" t="n">
-        <v>620346.9841674038</v>
+        <v>689449.5257182466</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.719797324576804e-06</v>
+        <v>3.981680967253088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.56041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>561141.9386609265</v>
+        <v>623649.4306321831</v>
       </c>
     </row>
   </sheetData>
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.7921185053617</v>
+        <v>568.0778882990203</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.9930434475551</v>
+        <v>777.2692285983768</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.900374037853</v>
+        <v>703.087744325161</v>
       </c>
       <c r="AD2" t="n">
-        <v>513792.1185053617</v>
+        <v>568077.8882990202</v>
       </c>
       <c r="AE2" t="n">
-        <v>702993.0434475552</v>
+        <v>777269.2285983769</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424449048656366e-06</v>
+        <v>3.750921935084927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.47083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>635900.374037853</v>
+        <v>703087.744325161</v>
       </c>
     </row>
     <row r="3">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>384.9949397858612</v>
+        <v>431.684013045872</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.7670613930342</v>
+        <v>590.6491112039213</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.4931523758962</v>
+        <v>534.2783890118524</v>
       </c>
       <c r="AD3" t="n">
-        <v>384994.9397858612</v>
+        <v>431684.013045872</v>
       </c>
       <c r="AE3" t="n">
-        <v>526767.0613930342</v>
+        <v>590649.1112039213</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.805705744228917e-06</v>
+        <v>4.34077310276099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.50416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>476493.1523758962</v>
+        <v>534278.3890118523</v>
       </c>
     </row>
   </sheetData>
@@ -5046,28 +5046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>771.8746383989726</v>
+        <v>843.9824871501023</v>
       </c>
       <c r="AB2" t="n">
-        <v>1056.112932963202</v>
+        <v>1154.774072798268</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.318996905004</v>
+        <v>1044.564056025991</v>
       </c>
       <c r="AD2" t="n">
-        <v>771874.6383989726</v>
+        <v>843982.4871501023</v>
       </c>
       <c r="AE2" t="n">
-        <v>1056112.932963202</v>
+        <v>1154774.072798268</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.992033081389009e-06</v>
+        <v>3.01054758083502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.84791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>955318.996905004</v>
+        <v>1044564.056025991</v>
       </c>
     </row>
     <row r="3">
@@ -5152,28 +5152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.3329598831134</v>
+        <v>492.3765016075603</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.9559582987856</v>
+        <v>673.6912516176458</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.9334949102954</v>
+        <v>609.3951040948671</v>
       </c>
       <c r="AD3" t="n">
-        <v>444332.9598831134</v>
+        <v>492376.5016075603</v>
       </c>
       <c r="AE3" t="n">
-        <v>607955.9582987856</v>
+        <v>673691.2516176457</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.689284935513686e-06</v>
+        <v>4.064300102456853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>549933.4949102954</v>
+        <v>609395.104094867</v>
       </c>
     </row>
     <row r="4">
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.6419962343743</v>
+        <v>456.6215731074432</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.1760543253014</v>
+        <v>624.7697810476672</v>
       </c>
       <c r="AC4" t="n">
-        <v>495.8589010704183</v>
+        <v>565.142630014372</v>
       </c>
       <c r="AD4" t="n">
-        <v>400641.9962343744</v>
+        <v>456621.5731074432</v>
       </c>
       <c r="AE4" t="n">
-        <v>548176.0543253014</v>
+        <v>624769.7810476671</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.802540031042717e-06</v>
+        <v>4.23546184522491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.975</v>
       </c>
       <c r="AH4" t="n">
-        <v>495858.9010704183</v>
+        <v>565142.6300143721</v>
       </c>
     </row>
   </sheetData>
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.2214485552431</v>
+        <v>431.9625378146391</v>
       </c>
       <c r="AB2" t="n">
-        <v>518.8675159828458</v>
+        <v>591.0302010801939</v>
       </c>
       <c r="AC2" t="n">
-        <v>469.3475284925747</v>
+        <v>534.6231082051966</v>
       </c>
       <c r="AD2" t="n">
-        <v>379221.4485552431</v>
+        <v>431962.537814639</v>
       </c>
       <c r="AE2" t="n">
-        <v>518867.5159828458</v>
+        <v>591030.201080194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747284505984196e-06</v>
+        <v>4.342050167762137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>469347.5284925747</v>
+        <v>534623.1082051966</v>
       </c>
     </row>
     <row r="3">
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.5802386273086</v>
+        <v>423.9331979587067</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.9901842712603</v>
+        <v>580.0441040598331</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.5539280882002</v>
+        <v>524.6855088653749</v>
       </c>
       <c r="AD3" t="n">
-        <v>378580.2386273086</v>
+        <v>423933.1979587066</v>
       </c>
       <c r="AE3" t="n">
-        <v>517990.1842712603</v>
+        <v>580044.1040598331</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.762325661288159e-06</v>
+        <v>4.365822533080926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>468553.9280882002</v>
+        <v>524685.508865375</v>
       </c>
     </row>
   </sheetData>
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1781.129769932797</v>
+        <v>1882.73471041606</v>
       </c>
       <c r="AB2" t="n">
-        <v>2437.020329121752</v>
+        <v>2576.040691184568</v>
       </c>
       <c r="AC2" t="n">
-        <v>2204.434529289886</v>
+        <v>2330.186983113731</v>
       </c>
       <c r="AD2" t="n">
-        <v>1781129.769932797</v>
+        <v>1882734.71041606</v>
       </c>
       <c r="AE2" t="n">
-        <v>2437020.329121752</v>
+        <v>2576040.691184569</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.278287072205607e-06</v>
+        <v>1.86359719585752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2204434.529289885</v>
+        <v>2330186.98311373</v>
       </c>
     </row>
     <row r="3">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.3701869950075</v>
+        <v>812.0783073599586</v>
       </c>
       <c r="AB3" t="n">
-        <v>1018.480129141539</v>
+        <v>1111.121366496319</v>
       </c>
       <c r="AC3" t="n">
-        <v>921.2778150621092</v>
+        <v>1005.077502746542</v>
       </c>
       <c r="AD3" t="n">
-        <v>744370.1869950076</v>
+        <v>812078.3073599585</v>
       </c>
       <c r="AE3" t="n">
-        <v>1018480.129141539</v>
+        <v>1111121.366496319</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.127935938146879e-06</v>
+        <v>3.102288627899942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.64375</v>
       </c>
       <c r="AH3" t="n">
-        <v>921277.8150621091</v>
+        <v>1005077.502746542</v>
       </c>
     </row>
     <row r="4">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.5101388762089</v>
+        <v>640.7440765887196</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.6478264271592</v>
+        <v>876.6943132223165</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.7123145716886</v>
+        <v>793.0238384165746</v>
       </c>
       <c r="AD4" t="n">
-        <v>581510.1388762089</v>
+        <v>640744.0765887196</v>
       </c>
       <c r="AE4" t="n">
-        <v>795647.8264271592</v>
+        <v>876694.3132223166</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439468870334112e-06</v>
+        <v>3.556468218279164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.77291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>719712.3145716885</v>
+        <v>793023.8384165745</v>
       </c>
     </row>
     <row r="5">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>501.8890679088709</v>
+        <v>561.0376647668099</v>
       </c>
       <c r="AB5" t="n">
-        <v>686.7067644959055</v>
+        <v>767.6364841688651</v>
       </c>
       <c r="AC5" t="n">
-        <v>621.1684346914127</v>
+        <v>694.3743355043601</v>
       </c>
       <c r="AD5" t="n">
-        <v>501889.0679088709</v>
+        <v>561037.6647668099</v>
       </c>
       <c r="AE5" t="n">
-        <v>686706.7644959055</v>
+        <v>767636.4841688651</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.61310772500016e-06</v>
+        <v>3.809613923718568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.925</v>
       </c>
       <c r="AH5" t="n">
-        <v>621168.4346914127</v>
+        <v>694374.3355043601</v>
       </c>
     </row>
     <row r="6">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>465.802251800956</v>
+        <v>516.647347715598</v>
       </c>
       <c r="AB6" t="n">
-        <v>637.3311906590902</v>
+        <v>706.8996940168231</v>
       </c>
       <c r="AC6" t="n">
-        <v>576.5051963225301</v>
+        <v>639.4341793598086</v>
       </c>
       <c r="AD6" t="n">
-        <v>465802.251800956</v>
+        <v>516647.3477155981</v>
       </c>
       <c r="AE6" t="n">
-        <v>637331.1906590902</v>
+        <v>706899.6940168231</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.689383190874134e-06</v>
+        <v>3.920814879596342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.58541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>576505.19632253</v>
+        <v>639434.1793598086</v>
       </c>
     </row>
     <row r="7">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>462.5674420481621</v>
+        <v>513.4125379628042</v>
       </c>
       <c r="AB7" t="n">
-        <v>632.9051812455832</v>
+        <v>702.4736846033162</v>
       </c>
       <c r="AC7" t="n">
-        <v>572.501599035505</v>
+        <v>635.4305820727835</v>
       </c>
       <c r="AD7" t="n">
-        <v>462567.4420481622</v>
+        <v>513412.5379628042</v>
       </c>
       <c r="AE7" t="n">
-        <v>632905.1812455832</v>
+        <v>702473.6846033162</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.698655894568617e-06</v>
+        <v>3.93433342717364e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.54583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>572501.599035505</v>
+        <v>635430.5820727835</v>
       </c>
     </row>
   </sheetData>
@@ -6785,28 +6785,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.300487064385</v>
+        <v>422.3480209316916</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.6614629060092</v>
+        <v>577.8751949183965</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.3064039900883</v>
+        <v>522.7235973683138</v>
       </c>
       <c r="AD2" t="n">
-        <v>370300.487064385</v>
+        <v>422348.0209316916</v>
       </c>
       <c r="AE2" t="n">
-        <v>506661.4629060092</v>
+        <v>577875.1949183964</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.698938432883688e-06</v>
+        <v>4.324333343850542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>458306.4039900883</v>
+        <v>522723.5973683138</v>
       </c>
     </row>
   </sheetData>
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1112.256341467267</v>
+        <v>1194.588469686996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1521.838195682164</v>
+        <v>1634.488645749544</v>
       </c>
       <c r="AC2" t="n">
-        <v>1376.59609419958</v>
+        <v>1478.495343418429</v>
       </c>
       <c r="AD2" t="n">
-        <v>1112256.341467267</v>
+        <v>1194588.469686996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1521838.195682164</v>
+        <v>1634488.645749544</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.650055907742176e-06</v>
+        <v>2.450074289494266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1376596.09419958</v>
+        <v>1478495.343418429</v>
       </c>
     </row>
     <row r="3">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>568.64661089585</v>
+        <v>626.108508449068</v>
       </c>
       <c r="AB3" t="n">
-        <v>778.0473799456297</v>
+        <v>856.6692832179485</v>
       </c>
       <c r="AC3" t="n">
-        <v>703.7916299999742</v>
+        <v>774.9099691705173</v>
       </c>
       <c r="AD3" t="n">
-        <v>568646.61089585</v>
+        <v>626108.5084490681</v>
       </c>
       <c r="AE3" t="n">
-        <v>778047.3799456297</v>
+        <v>856669.2832179485</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.425171691769197e-06</v>
+        <v>3.600999688394466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.35625</v>
       </c>
       <c r="AH3" t="n">
-        <v>703791.6299999743</v>
+        <v>774909.9691705173</v>
       </c>
     </row>
     <row r="4">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.6750198638578</v>
+        <v>506.1368279085249</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.8969563226069</v>
+        <v>692.5187371253774</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.3074924209661</v>
+        <v>626.4257208102828</v>
       </c>
       <c r="AD4" t="n">
-        <v>448675.0198638578</v>
+        <v>506136.8279085249</v>
       </c>
       <c r="AE4" t="n">
-        <v>613896.9563226069</v>
+        <v>692518.7371253774</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.70443105949488e-06</v>
+        <v>4.015656060796624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>555307.4924209662</v>
+        <v>626425.7208102827</v>
       </c>
     </row>
     <row r="5">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.3476603095876</v>
+        <v>473.746937241425</v>
       </c>
       <c r="AB5" t="n">
-        <v>580.6111897330968</v>
+        <v>648.2014597735249</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.1984726778923</v>
+        <v>586.3380222092014</v>
       </c>
       <c r="AD5" t="n">
-        <v>424347.6603095876</v>
+        <v>473746.937241425</v>
       </c>
       <c r="AE5" t="n">
-        <v>580611.1897330969</v>
+        <v>648201.4597735249</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.770669640035604e-06</v>
+        <v>4.114009966500031e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.69166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>525198.4726778923</v>
+        <v>586338.0222092015</v>
       </c>
     </row>
   </sheetData>
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.751045394886</v>
+        <v>1502.882437145503</v>
       </c>
       <c r="AB2" t="n">
-        <v>1919.30586531778</v>
+        <v>2056.310052996208</v>
       </c>
       <c r="AC2" t="n">
-        <v>1736.130007294551</v>
+        <v>1860.058707587536</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402751.045394886</v>
+        <v>1502882.437145503</v>
       </c>
       <c r="AE2" t="n">
-        <v>1919305.865317781</v>
+        <v>2056310.052996208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.455236263754002e-06</v>
+        <v>2.139841219411855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.81041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1736130.007294551</v>
+        <v>1860058.707587535</v>
       </c>
     </row>
     <row r="3">
@@ -7803,28 +7803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>651.2235548070148</v>
+        <v>717.9209220710447</v>
       </c>
       <c r="AB3" t="n">
-        <v>891.0327976425378</v>
+        <v>982.2910780133579</v>
       </c>
       <c r="AC3" t="n">
-        <v>805.9938780079192</v>
+        <v>888.542596181949</v>
       </c>
       <c r="AD3" t="n">
-        <v>651223.5548070148</v>
+        <v>717920.9220710448</v>
       </c>
       <c r="AE3" t="n">
-        <v>891032.7976425379</v>
+        <v>982291.0780133579</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266950963636888e-06</v>
+        <v>3.333420995063693e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>805993.8780079192</v>
+        <v>888542.596181949</v>
       </c>
     </row>
     <row r="4">
@@ -7909,28 +7909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.3650906525133</v>
+        <v>569.430876036373</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.618229801467</v>
+        <v>779.1204461102293</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.7978233081637</v>
+        <v>704.7622842358824</v>
       </c>
       <c r="AD4" t="n">
-        <v>519365.0906525134</v>
+        <v>569430.876036373</v>
       </c>
       <c r="AE4" t="n">
-        <v>710618.229801467</v>
+        <v>779120.4461102292</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566164115020144e-06</v>
+        <v>3.773396723175594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36875</v>
       </c>
       <c r="AH4" t="n">
-        <v>642797.8233081638</v>
+        <v>704762.2842358823</v>
       </c>
     </row>
     <row r="5">
@@ -8015,28 +8015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>454.4313089828312</v>
+        <v>504.5823457127115</v>
       </c>
       <c r="AB5" t="n">
-        <v>621.7729650447394</v>
+        <v>690.3918260061511</v>
       </c>
       <c r="AC5" t="n">
-        <v>562.4318259247061</v>
+        <v>624.5017991031367</v>
       </c>
       <c r="AD5" t="n">
-        <v>454431.3089828313</v>
+        <v>504582.3457127115</v>
       </c>
       <c r="AE5" t="n">
-        <v>621772.9650447394</v>
+        <v>690391.826006151</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.704039828870372e-06</v>
+        <v>3.976135029663003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.7375</v>
       </c>
       <c r="AH5" t="n">
-        <v>562431.8259247061</v>
+        <v>624501.7991031368</v>
       </c>
     </row>
     <row r="6">
@@ -8121,28 +8121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.7192592649414</v>
+        <v>494.8702959948216</v>
       </c>
       <c r="AB6" t="n">
-        <v>608.4845101553285</v>
+        <v>677.1033711167403</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.411602519477</v>
+        <v>612.4815756979077</v>
       </c>
       <c r="AD6" t="n">
-        <v>444719.2592649414</v>
+        <v>494870.2959948216</v>
       </c>
       <c r="AE6" t="n">
-        <v>608484.5101553285</v>
+        <v>677103.3711167403</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.731310273930251e-06</v>
+        <v>4.016234650504159e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.62083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>550411.602519477</v>
+        <v>612481.5756979077</v>
       </c>
     </row>
   </sheetData>
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2281.397968546531</v>
+        <v>2401.375309262547</v>
       </c>
       <c r="AB2" t="n">
-        <v>3121.509348740523</v>
+        <v>3285.667639334895</v>
       </c>
       <c r="AC2" t="n">
-        <v>2823.596877562496</v>
+        <v>2972.088131300143</v>
       </c>
       <c r="AD2" t="n">
-        <v>2281397.968546531</v>
+        <v>2401375.309262547</v>
       </c>
       <c r="AE2" t="n">
-        <v>3121509.348740523</v>
+        <v>3285667.639334895</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.114202645118568e-06</v>
+        <v>1.611997753811457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.49791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2823596.877562496</v>
+        <v>2972088.131300143</v>
       </c>
     </row>
     <row r="3">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>839.9505596711366</v>
+        <v>908.4359291371779</v>
       </c>
       <c r="AB3" t="n">
-        <v>1149.257411745461</v>
+        <v>1242.962115610163</v>
       </c>
       <c r="AC3" t="n">
-        <v>1039.573897361381</v>
+        <v>1124.335555804613</v>
       </c>
       <c r="AD3" t="n">
-        <v>839950.5596711366</v>
+        <v>908435.9291371779</v>
       </c>
       <c r="AE3" t="n">
-        <v>1149257.411745461</v>
+        <v>1242962.115610162</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.005035378935155e-06</v>
+        <v>2.900830061134911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.27916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1039573.897361381</v>
+        <v>1124335.555804614</v>
       </c>
     </row>
     <row r="4">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>654.2216801099401</v>
+        <v>714.125054367652</v>
       </c>
       <c r="AB4" t="n">
-        <v>895.1349649499537</v>
+        <v>977.0974043597115</v>
       </c>
       <c r="AC4" t="n">
-        <v>809.7045402249431</v>
+        <v>883.8445994524398</v>
       </c>
       <c r="AD4" t="n">
-        <v>654221.68010994</v>
+        <v>714125.0543676519</v>
       </c>
       <c r="AE4" t="n">
-        <v>895134.9649499536</v>
+        <v>977097.4043597115</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.320458986402402e-06</v>
+        <v>3.357176264371756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.20208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>809704.5402249431</v>
+        <v>883844.5994524397</v>
       </c>
     </row>
     <row r="5">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>567.6521785186395</v>
+        <v>619.058898422594</v>
       </c>
       <c r="AB5" t="n">
-        <v>776.6867536958702</v>
+        <v>847.0236957728821</v>
       </c>
       <c r="AC5" t="n">
-        <v>702.5608600098407</v>
+        <v>766.184943053541</v>
       </c>
       <c r="AD5" t="n">
-        <v>567652.1785186395</v>
+        <v>619058.8984225939</v>
       </c>
       <c r="AE5" t="n">
-        <v>776686.7536958702</v>
+        <v>847023.6957728821</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.497654998988897e-06</v>
+        <v>3.613538583672641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.26458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>702560.8600098407</v>
+        <v>766184.943053541</v>
       </c>
     </row>
     <row r="6">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.4766779390991</v>
+        <v>581.3799626882601</v>
       </c>
       <c r="AB6" t="n">
-        <v>713.5073966836301</v>
+        <v>795.4697136238397</v>
       </c>
       <c r="AC6" t="n">
-        <v>645.4112521580644</v>
+        <v>719.5512006043347</v>
       </c>
       <c r="AD6" t="n">
-        <v>521476.6779390991</v>
+        <v>581379.9626882601</v>
       </c>
       <c r="AE6" t="n">
-        <v>713507.3966836301</v>
+        <v>795469.7136238397</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.576180036931793e-06</v>
+        <v>3.727146449653282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.89166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>645411.2521580644</v>
+        <v>719551.2006043347</v>
       </c>
     </row>
     <row r="7">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>480.7259870755892</v>
+        <v>532.2179583255642</v>
       </c>
       <c r="AB7" t="n">
-        <v>657.7505036505768</v>
+        <v>728.2040903802381</v>
       </c>
       <c r="AC7" t="n">
-        <v>594.9757187407948</v>
+        <v>658.7053140352074</v>
       </c>
       <c r="AD7" t="n">
-        <v>480725.9870755892</v>
+        <v>532217.9583255642</v>
       </c>
       <c r="AE7" t="n">
-        <v>657750.5036505768</v>
+        <v>728204.0903802381</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663086960947243e-06</v>
+        <v>3.8528809979577e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.50416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>594975.7187407948</v>
+        <v>658705.3140352074</v>
       </c>
     </row>
     <row r="8">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>480.5111640889214</v>
+        <v>531.8325431383042</v>
       </c>
       <c r="AB8" t="n">
-        <v>657.4565733628966</v>
+        <v>727.676748317711</v>
       </c>
       <c r="AC8" t="n">
-        <v>594.7098407472372</v>
+        <v>658.2283007589986</v>
       </c>
       <c r="AD8" t="n">
-        <v>480511.1640889214</v>
+        <v>531832.5431383043</v>
       </c>
       <c r="AE8" t="n">
-        <v>657456.5733628966</v>
+        <v>727676.7483177111</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.66514566980717e-06</v>
+        <v>3.85585948133547e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.49583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>594709.8407472372</v>
+        <v>658228.3007589986</v>
       </c>
     </row>
   </sheetData>
@@ -9351,28 +9351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>874.4651478968671</v>
+        <v>947.3274309956576</v>
       </c>
       <c r="AB2" t="n">
-        <v>1196.481794032073</v>
+        <v>1296.175184224903</v>
       </c>
       <c r="AC2" t="n">
-        <v>1082.291250882396</v>
+        <v>1172.470043835774</v>
       </c>
       <c r="AD2" t="n">
-        <v>874465.147896867</v>
+        <v>947327.4309956576</v>
       </c>
       <c r="AE2" t="n">
-        <v>1196481.794032073</v>
+        <v>1296175.184224903</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871013866540865e-06</v>
+        <v>2.8096727360302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1082291.250882396</v>
+        <v>1172470.043835774</v>
       </c>
     </row>
     <row r="3">
@@ -9457,28 +9457,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.2307570554451</v>
+        <v>539.816080833266</v>
       </c>
       <c r="AB3" t="n">
-        <v>661.1776404396682</v>
+        <v>738.6001768007829</v>
       </c>
       <c r="AC3" t="n">
-        <v>598.0757744047521</v>
+        <v>668.1092125587744</v>
       </c>
       <c r="AD3" t="n">
-        <v>483230.7570554451</v>
+        <v>539816.080833266</v>
       </c>
       <c r="AE3" t="n">
-        <v>661177.6404396682</v>
+        <v>738600.1768007829</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.594856489851888e-06</v>
+        <v>3.89665606643896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.77291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>598075.7744047521</v>
+        <v>668109.2125587744</v>
       </c>
     </row>
     <row r="4">
@@ -9563,28 +9563,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.2485948696868</v>
+        <v>465.7485777929361</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.9519822744702</v>
+        <v>637.2577515133872</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.510950983737</v>
+        <v>576.4387661058204</v>
       </c>
       <c r="AD4" t="n">
-        <v>409248.5948696868</v>
+        <v>465748.5777929361</v>
       </c>
       <c r="AE4" t="n">
-        <v>559951.9822744702</v>
+        <v>637257.7515133872</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789578109837095e-06</v>
+        <v>4.189066527190679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.88125</v>
       </c>
       <c r="AH4" t="n">
-        <v>506510.950983737</v>
+        <v>576438.7661058204</v>
       </c>
     </row>
     <row r="5">
@@ -9669,28 +9669,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.6885124768988</v>
+        <v>468.1884954001481</v>
       </c>
       <c r="AB5" t="n">
-        <v>563.2903851862254</v>
+        <v>640.5961544251426</v>
       </c>
       <c r="AC5" t="n">
-        <v>509.5307414070722</v>
+        <v>579.4585565291557</v>
       </c>
       <c r="AD5" t="n">
-        <v>411688.5124768988</v>
+        <v>468188.4954001481</v>
       </c>
       <c r="AE5" t="n">
-        <v>563290.3851862254</v>
+        <v>640596.1544251426</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.787828160637882e-06</v>
+        <v>4.186438655402876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>509530.7414070722</v>
+        <v>579458.5565291557</v>
       </c>
     </row>
   </sheetData>
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.2050018616992</v>
+        <v>659.8999455977504</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.1222303723943</v>
+        <v>902.9042182977691</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.1372315439054</v>
+        <v>816.7323069374588</v>
       </c>
       <c r="AD2" t="n">
-        <v>597205.0018616992</v>
+        <v>659899.9455977504</v>
       </c>
       <c r="AE2" t="n">
-        <v>817122.2303723942</v>
+        <v>902904.2182977692</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265823655692103e-06</v>
+        <v>3.475199665457072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.23541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>739137.2315439053</v>
+        <v>816732.3069374588</v>
       </c>
     </row>
     <row r="3">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.2644618981287</v>
+        <v>439.3283625045908</v>
       </c>
       <c r="AB3" t="n">
-        <v>536.7135422557196</v>
+        <v>601.1084473782367</v>
       </c>
       <c r="AC3" t="n">
-        <v>485.4903550650206</v>
+        <v>543.7395008214618</v>
       </c>
       <c r="AD3" t="n">
-        <v>392264.4618981287</v>
+        <v>439328.3625045908</v>
       </c>
       <c r="AE3" t="n">
-        <v>536713.5422557197</v>
+        <v>601108.4473782368</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.808872300444756e-06</v>
+        <v>4.308098758831081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>485490.3550650206</v>
+        <v>543739.5008214618</v>
       </c>
     </row>
     <row r="4">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.515417345965</v>
+        <v>440.5793179524271</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.4251546877088</v>
+        <v>602.820059810226</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.0386136087638</v>
+        <v>545.287759365205</v>
       </c>
       <c r="AD4" t="n">
-        <v>393515.417345965</v>
+        <v>440579.3179524271</v>
       </c>
       <c r="AE4" t="n">
-        <v>538425.1546877087</v>
+        <v>602820.059810226</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.813015179943937e-06</v>
+        <v>4.314452886793958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.27291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>487038.6136087638</v>
+        <v>545287.7593652051</v>
       </c>
     </row>
   </sheetData>
@@ -18000,28 +18000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.729636082673</v>
+        <v>486.4074567133128</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.0797787725053</v>
+        <v>665.5241410576608</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.572515675645</v>
+        <v>602.0074511041155</v>
       </c>
       <c r="AD2" t="n">
-        <v>432729.636082673</v>
+        <v>486407.4567133128</v>
       </c>
       <c r="AE2" t="n">
-        <v>592079.7787725052</v>
+        <v>665524.1410576608</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608398600299019e-06</v>
+        <v>4.075571361351325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>535572.5156756451</v>
+        <v>602007.4511041155</v>
       </c>
     </row>
     <row r="3">
@@ -18106,28 +18106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>377.6672528151218</v>
+        <v>431.25973259119</v>
       </c>
       <c r="AB3" t="n">
-        <v>516.7409968049349</v>
+        <v>590.0685919678929</v>
       </c>
       <c r="AC3" t="n">
-        <v>467.4239613204152</v>
+        <v>533.7532737169466</v>
       </c>
       <c r="AD3" t="n">
-        <v>377667.2528151218</v>
+        <v>431259.73259119</v>
       </c>
       <c r="AE3" t="n">
-        <v>516740.9968049349</v>
+        <v>590068.5919678928</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.791651630249049e-06</v>
+        <v>4.361900605915242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79375</v>
       </c>
       <c r="AH3" t="n">
-        <v>467423.9613204152</v>
+        <v>533753.2737169466</v>
       </c>
     </row>
   </sheetData>
@@ -18403,28 +18403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.1875799340455</v>
+        <v>434.4362883527915</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.7164430904859</v>
+        <v>594.4148957006655</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.5926281709942</v>
+        <v>537.6847723215391</v>
       </c>
       <c r="AD2" t="n">
-        <v>376187.5799340454</v>
+        <v>434436.2883527915</v>
       </c>
       <c r="AE2" t="n">
-        <v>514716.4430904859</v>
+        <v>594414.8957006655</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.570170589809327e-06</v>
+        <v>4.188545668196565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.91458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>465592.6281709942</v>
+        <v>537684.7723215391</v>
       </c>
     </row>
   </sheetData>
@@ -18700,28 +18700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1248.397133061934</v>
+        <v>1339.580944238795</v>
       </c>
       <c r="AB2" t="n">
-        <v>1708.112032849822</v>
+        <v>1832.873746047842</v>
       </c>
       <c r="AC2" t="n">
-        <v>1545.09221778493</v>
+        <v>1657.946848179495</v>
       </c>
       <c r="AD2" t="n">
-        <v>1248397.133061934</v>
+        <v>1339580.944238795</v>
       </c>
       <c r="AE2" t="n">
-        <v>1708112.032849822</v>
+        <v>1832873.746047842</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550853057858069e-06</v>
+        <v>2.291200538696039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1545092.21778493</v>
+        <v>1657946.848179495</v>
       </c>
     </row>
     <row r="3">
@@ -18806,28 +18806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>609.679535503617</v>
+        <v>667.7599049781654</v>
       </c>
       <c r="AB3" t="n">
-        <v>834.1904376388496</v>
+        <v>913.6585614789881</v>
       </c>
       <c r="AC3" t="n">
-        <v>754.5764730642296</v>
+        <v>826.4602706992777</v>
       </c>
       <c r="AD3" t="n">
-        <v>609679.535503617</v>
+        <v>667759.9049781654</v>
       </c>
       <c r="AE3" t="n">
-        <v>834190.4376388496</v>
+        <v>913658.561478988</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.343128322756491e-06</v>
+        <v>3.461692807149844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>754576.4730642296</v>
+        <v>826460.2706992776</v>
       </c>
     </row>
     <row r="4">
@@ -18912,28 +18912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.4322796658486</v>
+        <v>538.1302021551553</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.2945931502045</v>
+        <v>736.2934832176738</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.5134951373007</v>
+        <v>666.0226665737723</v>
       </c>
       <c r="AD4" t="n">
-        <v>488432.2796658486</v>
+        <v>538130.2021551552</v>
       </c>
       <c r="AE4" t="n">
-        <v>668294.5931502045</v>
+        <v>736293.4832176738</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.63455760061969e-06</v>
+        <v>3.892244828212478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>604513.4951373007</v>
+        <v>666022.6665737723</v>
       </c>
     </row>
     <row r="5">
@@ -19018,28 +19018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.6201932914569</v>
+        <v>485.4033671267841</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.0347666679473</v>
+        <v>664.1503013880659</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.1500450772065</v>
+        <v>600.7647287643905</v>
       </c>
       <c r="AD5" t="n">
-        <v>435620.1932914568</v>
+        <v>485403.3671267841</v>
       </c>
       <c r="AE5" t="n">
-        <v>596034.7666679473</v>
+        <v>664150.3013880659</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.745805418938113e-06</v>
+        <v>4.05660021956849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.675</v>
       </c>
       <c r="AH5" t="n">
-        <v>539150.0450772066</v>
+        <v>600764.7287643905</v>
       </c>
     </row>
     <row r="6">
@@ -19124,28 +19124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>440.0091411814855</v>
+        <v>489.7923150168126</v>
       </c>
       <c r="AB6" t="n">
-        <v>602.0399187977997</v>
+        <v>670.1554535179184</v>
       </c>
       <c r="AC6" t="n">
-        <v>544.5820739160699</v>
+        <v>606.1967576032538</v>
       </c>
       <c r="AD6" t="n">
-        <v>440009.1411814854</v>
+        <v>489792.3150168126</v>
       </c>
       <c r="AE6" t="n">
-        <v>602039.9187977997</v>
+        <v>670155.4535179185</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.734265188822094e-06</v>
+        <v>4.039550905112472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.72291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>544582.0739160699</v>
+        <v>606196.7576032538</v>
       </c>
     </row>
   </sheetData>
@@ -19421,28 +19421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2007.779341649488</v>
+        <v>2127.014419710238</v>
       </c>
       <c r="AB2" t="n">
-        <v>2747.132272217933</v>
+        <v>2910.274966301043</v>
       </c>
       <c r="AC2" t="n">
-        <v>2484.949823781813</v>
+        <v>2632.52240811384</v>
       </c>
       <c r="AD2" t="n">
-        <v>2007779.341649488</v>
+        <v>2127014.419710238</v>
       </c>
       <c r="AE2" t="n">
-        <v>2747132.272217934</v>
+        <v>2910274.966301043</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.194938335995896e-06</v>
+        <v>1.735252427120294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>2484949.823781813</v>
+        <v>2632522.408113841</v>
       </c>
     </row>
     <row r="3">
@@ -19527,28 +19527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>790.2501644746909</v>
+        <v>858.3966863457724</v>
       </c>
       <c r="AB3" t="n">
-        <v>1081.255138410996</v>
+        <v>1174.496216047372</v>
       </c>
       <c r="AC3" t="n">
-        <v>978.0616655521676</v>
+        <v>1062.403945603603</v>
       </c>
       <c r="AD3" t="n">
-        <v>790250.1644746909</v>
+        <v>858396.6863457725</v>
       </c>
       <c r="AE3" t="n">
-        <v>1081255.138410996</v>
+        <v>1174496.216047372</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.060412348554283e-06</v>
+        <v>2.992066971989527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>978061.6655521676</v>
+        <v>1062403.945603603</v>
       </c>
     </row>
     <row r="4">
@@ -19633,28 +19633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>614.2859672410989</v>
+        <v>673.9035062714738</v>
       </c>
       <c r="AB4" t="n">
-        <v>840.4931607634979</v>
+        <v>922.0645078050528</v>
       </c>
       <c r="AC4" t="n">
-        <v>760.2776731397888</v>
+        <v>834.0639653058024</v>
       </c>
       <c r="AD4" t="n">
-        <v>614285.9672410989</v>
+        <v>673903.5062714738</v>
       </c>
       <c r="AE4" t="n">
-        <v>840493.1607634979</v>
+        <v>922064.5078050528</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.376532032428616e-06</v>
+        <v>3.45112618214221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>760277.6731397888</v>
+        <v>834063.9653058024</v>
       </c>
     </row>
     <row r="5">
@@ -19739,28 +19739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>538.4057449188239</v>
+        <v>589.4943906170431</v>
       </c>
       <c r="AB5" t="n">
-        <v>736.670492983014</v>
+        <v>806.5722318992955</v>
       </c>
       <c r="AC5" t="n">
-        <v>666.3636950562449</v>
+        <v>729.5941101180633</v>
       </c>
       <c r="AD5" t="n">
-        <v>538405.7449188238</v>
+        <v>589494.3906170431</v>
       </c>
       <c r="AE5" t="n">
-        <v>736670.492983014</v>
+        <v>806572.2318992955</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.556388118985636e-06</v>
+        <v>3.712307618312568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>666363.6950562448</v>
+        <v>729594.1101180633</v>
       </c>
     </row>
     <row r="6">
@@ -19845,28 +19845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>489.9984552894953</v>
+        <v>541.1723523337353</v>
       </c>
       <c r="AB6" t="n">
-        <v>670.4375037332701</v>
+        <v>740.4558873022007</v>
       </c>
       <c r="AC6" t="n">
-        <v>606.4518893419122</v>
+        <v>669.787816654443</v>
       </c>
       <c r="AD6" t="n">
-        <v>489998.4552894954</v>
+        <v>541172.3523337352</v>
       </c>
       <c r="AE6" t="n">
-        <v>670437.5037332701</v>
+        <v>740455.8873022008</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.640162800687793e-06</v>
+        <v>3.833962615374606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="AH6" t="n">
-        <v>606451.8893419122</v>
+        <v>669787.8166544429</v>
       </c>
     </row>
     <row r="7">
@@ -19951,28 +19951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>470.6565297796907</v>
+        <v>521.8304268239306</v>
       </c>
       <c r="AB7" t="n">
-        <v>643.9730279452251</v>
+        <v>713.9914115141557</v>
       </c>
       <c r="AC7" t="n">
-        <v>582.5131459799533</v>
+        <v>645.8490732924839</v>
       </c>
       <c r="AD7" t="n">
-        <v>470656.5297796907</v>
+        <v>521830.4268239306</v>
       </c>
       <c r="AE7" t="n">
-        <v>643973.0279452251</v>
+        <v>713991.4115141558</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.683013921062878e-06</v>
+        <v>3.896189684668286e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.51458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>582513.1459799532</v>
+        <v>645849.0732924839</v>
       </c>
     </row>
     <row r="8">
@@ -20057,28 +20057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>472.4706162166011</v>
+        <v>523.644513260841</v>
       </c>
       <c r="AB8" t="n">
-        <v>646.4551410400511</v>
+        <v>716.4735246089818</v>
       </c>
       <c r="AC8" t="n">
-        <v>584.7583696846766</v>
+        <v>648.0942969972074</v>
       </c>
       <c r="AD8" t="n">
-        <v>472470.616216601</v>
+        <v>523644.513260841</v>
       </c>
       <c r="AE8" t="n">
-        <v>646455.1410400511</v>
+        <v>716473.5246089818</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.683013921062878e-06</v>
+        <v>3.896189684668286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5125</v>
       </c>
       <c r="AH8" t="n">
-        <v>584758.3696846766</v>
+        <v>648094.2969972073</v>
       </c>
     </row>
   </sheetData>
@@ -20354,28 +20354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.060029252847</v>
+        <v>466.9304127846046</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.4845137772635</v>
+        <v>638.8747902878681</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.851605795737</v>
+        <v>577.9014769691931</v>
       </c>
       <c r="AD2" t="n">
-        <v>403060.029252847</v>
+        <v>466930.4127846046</v>
       </c>
       <c r="AE2" t="n">
-        <v>551484.5137772635</v>
+        <v>638874.7902878681</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304567563675131e-06</v>
+        <v>3.84157682471924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>498851.6057957371</v>
+        <v>577901.4769691931</v>
       </c>
     </row>
   </sheetData>
@@ -20651,28 +20651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.1354397770182</v>
+        <v>749.5905162375243</v>
       </c>
       <c r="AB2" t="n">
-        <v>938.8007788621591</v>
+        <v>1025.622813915823</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.2029501427224</v>
+        <v>927.738812026356</v>
       </c>
       <c r="AD2" t="n">
-        <v>686135.4397770182</v>
+        <v>749590.5162375243</v>
       </c>
       <c r="AE2" t="n">
-        <v>938800.7788621591</v>
+        <v>1025622.813915823</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.12159028263251e-06</v>
+        <v>3.228862299719132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.03541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>849202.9501427225</v>
+        <v>927738.812026356</v>
       </c>
     </row>
     <row r="3">
@@ -20757,28 +20757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.3464550650741</v>
+        <v>453.9164495739487</v>
       </c>
       <c r="AB3" t="n">
-        <v>555.9811465604269</v>
+        <v>621.0685116875121</v>
       </c>
       <c r="AC3" t="n">
-        <v>502.9190862571391</v>
+        <v>561.7946046071861</v>
       </c>
       <c r="AD3" t="n">
-        <v>406346.455065074</v>
+        <v>453916.4495739487</v>
       </c>
       <c r="AE3" t="n">
-        <v>555981.1465604268</v>
+        <v>621068.5116875122</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.78687344238042e-06</v>
+        <v>4.241361145859506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.20625</v>
       </c>
       <c r="AH3" t="n">
-        <v>502919.0862571391</v>
+        <v>561794.604607186</v>
       </c>
     </row>
     <row r="4">
@@ -20863,28 +20863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.2111699219452</v>
+        <v>448.7811644308199</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.9548228748068</v>
+        <v>614.0421880018922</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.5633450425674</v>
+        <v>555.4388633926145</v>
       </c>
       <c r="AD4" t="n">
-        <v>401211.1699219452</v>
+        <v>448781.1644308199</v>
       </c>
       <c r="AE4" t="n">
-        <v>548954.8228748068</v>
+        <v>614042.1880018922</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.809408807143604e-06</v>
+        <v>4.275657866715513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>496563.3450425675</v>
+        <v>555438.8633926145</v>
       </c>
     </row>
   </sheetData>
@@ -21160,28 +21160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.1761906774262</v>
+        <v>1068.753061353166</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.698015224703</v>
+        <v>1462.315088600785</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.789292368227</v>
+        <v>1322.753788916843</v>
       </c>
       <c r="AD2" t="n">
-        <v>987176.1906774263</v>
+        <v>1068753.061353166</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350698.015224703</v>
+        <v>1462315.088600785</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.757434801002706e-06</v>
+        <v>2.623693208462227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221789.292368227</v>
+        <v>1322753.788916843</v>
       </c>
     </row>
     <row r="3">
@@ -21266,28 +21266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.9197218951587</v>
+        <v>578.9171383218968</v>
       </c>
       <c r="AB3" t="n">
-        <v>725.0595419051216</v>
+        <v>792.0999686736385</v>
       </c>
       <c r="AC3" t="n">
-        <v>655.8608768531544</v>
+        <v>716.5030593827141</v>
       </c>
       <c r="AD3" t="n">
-        <v>529919.7218951586</v>
+        <v>578917.1383218968</v>
       </c>
       <c r="AE3" t="n">
-        <v>725059.5419051216</v>
+        <v>792099.9686736385</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.507386849739771e-06</v>
+        <v>3.743304642025013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.06458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>655860.8768531544</v>
+        <v>716503.0593827141</v>
       </c>
     </row>
     <row r="4">
@@ -21372,28 +21372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.3453967457817</v>
+        <v>470.3427236639687</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.5033602745771</v>
+        <v>643.5436645735456</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.4826886975187</v>
+        <v>582.1247604458516</v>
       </c>
       <c r="AD4" t="n">
-        <v>421345.3967457816</v>
+        <v>470342.7236639687</v>
       </c>
       <c r="AE4" t="n">
-        <v>576503.360274577</v>
+        <v>643543.6645735456</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.767118670392523e-06</v>
+        <v>4.131061054655143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8375</v>
       </c>
       <c r="AH4" t="n">
-        <v>521482.6886975187</v>
+        <v>582124.7604458516</v>
       </c>
     </row>
     <row r="5">
@@ -21478,28 +21478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>418.8526968481741</v>
+        <v>467.8500237663612</v>
       </c>
       <c r="AB5" t="n">
-        <v>573.0927383045123</v>
+        <v>640.1330426034807</v>
       </c>
       <c r="AC5" t="n">
-        <v>518.3975717014389</v>
+        <v>579.0396434497718</v>
       </c>
       <c r="AD5" t="n">
-        <v>418852.6968481741</v>
+        <v>467850.0237663612</v>
       </c>
       <c r="AE5" t="n">
-        <v>573092.7383045123</v>
+        <v>640133.0426034807</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.776709252147861e-06</v>
+        <v>4.145378936719573e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.79583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>518397.5717014389</v>
+        <v>579039.6434497718</v>
       </c>
     </row>
   </sheetData>
